--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D643698-3966-4D41-805D-3305DB51A99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81842B40-4662-4A37-8A08-4FF8989EE5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -293,6 +287,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -367,6 +370,8 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -413,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -441,28 +446,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,6 +489,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -528,7 +520,7 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -554,7 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,13 +567,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,15 +583,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -648,6 +631,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -669,9 +661,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -940,803 +932,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="9" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="13.7265625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G25" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>2007</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>2008</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>2011</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>2012</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>2015</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>2016</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>2016</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>2017</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <v>2017</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>2018</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>2018</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>2019</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>2019</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>2020</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>2020</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>2020.6666666666699</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f t="shared" ref="G26:G27" si="1">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" ref="H26:H27" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>2021.1666666666699</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8" t="str">
+        <v>61</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>2021.6666666666699</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f t="shared" ref="G28:G31" si="2">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" ref="H28:H31" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>2022.1666666666699</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8" t="str">
+        <v>64</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>2022.6666666666699</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8" t="str">
+        <v>65</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>2023.1666666666699</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8" t="str">
+        <v>67</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F3 F7:F23 F26 F28 F30">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3 G7:G23 G26 G28 G30">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F23 F3 F26 F28 F30">
+  <conditionalFormatting sqref="G7:G23 G3 G26 G28 G30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1748,12 +1772,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F27 F29 F31">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
+  <conditionalFormatting sqref="G24 G27 G29 G31">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F24 F29 F31">
+  <conditionalFormatting sqref="G24 G27 G29 G31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1765,12 +1789,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F25))))</formula>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1782,12 +1806,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1799,12 +1823,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1816,12 +1840,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1859,13 +1883,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1873,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1884,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1895,10 +1919,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1906,10 +1930,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1917,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1928,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81842B40-4662-4A37-8A08-4FF8989EE5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA45BB-F080-4A91-876F-65D55F9AF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -582,7 +588,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -631,15 +654,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -661,9 +675,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -932,13 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1594,7 +1608,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
-        <v>2020.6666666666699</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>59</v>
@@ -1620,7 +1634,7 @@
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
-        <v>2021.1666666666699</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>61</v>
@@ -1646,7 +1660,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
-        <v>2021.6666666666699</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>62</v>
@@ -1665,14 +1679,14 @@
         <v>0</v>
       </c>
       <c r="H28" s="8" t="str">
-        <f t="shared" ref="H28:H31" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H28:H32" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
-        <v>2022.1666666666699</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>64</v>
@@ -1698,7 +1712,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
-        <v>2022.6666666666699</v>
+        <v>2023</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>65</v>
@@ -1724,7 +1738,7 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
-        <v>2023.1666666666699</v>
+        <v>2023</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>67</v>
@@ -1747,6 +1761,33 @@
         <v/>
       </c>
       <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1756,12 +1797,12 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3 G7:G23 G26 G28 G30">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G23 G3 G26 G28 G30">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1773,11 +1814,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24 G27 G29 G31">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G27 G29 G31">
+  <conditionalFormatting sqref="G27 G24 G29 G31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1789,12 +1847,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1806,12 +1864,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1823,12 +1881,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1840,12 +1898,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA45BB-F080-4A91-876F-65D55F9AF630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278981B-AE15-4BBC-9574-683D7D99B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -376,6 +376,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -421,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -501,13 +508,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,6 +675,12 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,8 +693,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -588,15 +753,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -605,38 +762,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -675,9 +800,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -952,7 +1077,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -967,17 +1092,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -988,8 +1113,8 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1009,23 +1134,23 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>2004</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="34">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="str">
@@ -1051,7 +1176,7 @@
       <c r="F4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
       <c r="H4" s="8" t="str">
@@ -1077,7 +1202,7 @@
       <c r="F5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
       <c r="H5" s="8" t="str">
@@ -1086,24 +1211,24 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="35">
         <v>2007</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="40">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="str">
@@ -1113,23 +1238,23 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="A7" s="41">
         <v>2008</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="46">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="str">
@@ -1155,7 +1280,7 @@
       <c r="F8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
       <c r="H8" s="8" t="str">
@@ -1181,7 +1306,7 @@
       <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="24">
         <v>0</v>
       </c>
       <c r="H9" s="8" t="str">
@@ -1190,24 +1315,24 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="35">
         <v>2011</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="40">
         <v>0</v>
       </c>
       <c r="H10" s="8" t="str">
@@ -1217,23 +1342,23 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="41">
         <v>2012</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="46">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="str">
@@ -1259,8 +1384,8 @@
       <c r="F12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
+      <c r="G12" s="24">
+        <v>1</v>
       </c>
       <c r="H12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1285,7 +1410,7 @@
       <c r="F13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="24">
         <v>0</v>
       </c>
       <c r="H13" s="8" t="str">
@@ -1294,24 +1419,24 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35">
         <v>2014</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="40">
         <v>0</v>
       </c>
       <c r="H14" s="8" t="str">
@@ -1321,23 +1446,23 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
+      <c r="A15" s="41">
         <v>2015</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="46">
         <v>0</v>
       </c>
       <c r="H15" s="8" t="str">
@@ -1363,7 +1488,7 @@
       <c r="F16" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="24">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="str">
@@ -1389,7 +1514,7 @@
       <c r="F17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="24">
         <v>0</v>
       </c>
       <c r="H17" s="8" t="str">
@@ -1398,24 +1523,24 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="35">
         <v>2017</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="40">
         <v>0</v>
       </c>
       <c r="H18" s="8" t="str">
@@ -1425,23 +1550,23 @@
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="41">
         <v>2017</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="46">
         <v>0</v>
       </c>
       <c r="H19" s="8" t="str">
@@ -1467,7 +1592,7 @@
       <c r="F20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="24">
         <v>0</v>
       </c>
       <c r="H20" s="8" t="str">
@@ -1493,7 +1618,7 @@
       <c r="F21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="24">
         <v>0</v>
       </c>
       <c r="H21" s="8" t="str">
@@ -1502,25 +1627,25 @@
       </c>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="35">
         <v>2019</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="7">
-        <v>0</v>
+      <c r="G22" s="40">
+        <v>1</v>
       </c>
       <c r="H22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1529,23 +1654,23 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="41">
         <v>2019</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="46">
         <v>0</v>
       </c>
       <c r="H23" s="8" t="str">
@@ -1571,7 +1696,7 @@
       <c r="F24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="24">
         <v>0</v>
       </c>
       <c r="H24" s="8" t="str">
@@ -1597,8 +1722,8 @@
       <c r="F25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="7">
-        <v>0</v>
+      <c r="G25" s="24">
+        <v>1</v>
       </c>
       <c r="H25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1606,24 +1731,24 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="35">
         <v>2021</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="40">
         <v>0</v>
       </c>
       <c r="H26" s="8" t="str">
@@ -1633,23 +1758,23 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
+      <c r="A27" s="41">
         <v>2021</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="46">
         <v>0</v>
       </c>
       <c r="H27" s="8" t="str">
@@ -1675,7 +1800,7 @@
       <c r="F28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="24">
         <v>0</v>
       </c>
       <c r="H28" s="8" t="str">
@@ -1701,7 +1826,7 @@
       <c r="F29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="24">
         <v>0</v>
       </c>
       <c r="H29" s="8" t="str">
@@ -1710,24 +1835,24 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="35">
         <v>2023</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="40">
         <v>0</v>
       </c>
       <c r="H30" s="8" t="str">
@@ -1737,14 +1862,14 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>2023</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -1753,7 +1878,7 @@
       <c r="F31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="30">
         <v>0</v>
       </c>
       <c r="H31" s="8" t="str">
@@ -1766,19 +1891,19 @@
       <c r="A32" s="17">
         <v>2024</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -1796,97 +1921,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G3 G7:G23 G26 G28 G30">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G23 G3 G26 G28 G30">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 G27 G29 G31">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G24 G29 G31">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1898,12 +1938,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+  <conditionalFormatting sqref="G3:G31">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278981B-AE15-4BBC-9574-683D7D99B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4B2AB-711F-443A-B3E3-F175ACA6503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -298,7 +298,10 @@
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>-</t>
+    <t>750th Anniversary - Death of Thomas Aquinas</t>
+  </si>
+  <si>
+    <t>76.900</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -609,13 +612,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,9 +677,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,12 +718,81 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,60 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,44 +1135,44 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="9" customWidth="1"/>
-    <col min="3" max="5" width="25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="13.7265625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="8" customWidth="1"/>
+    <col min="3" max="5" width="25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="8" customWidth="1"/>
+    <col min="8" max="9" width="13.7265625" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1134,782 +1192,780 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2004</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="H3" s="7" t="str">
         <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="40">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="40">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="str">
+      <c r="G8" s="22">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35">
+      <c r="A10" s="29">
         <v>2011</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="39" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="40">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="str">
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+      <c r="A11" s="35">
         <v>2012</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="46">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="str">
+      <c r="G11" s="40">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35">
+      <c r="A14" s="29">
         <v>2014</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="39" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="34">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41">
+      <c r="A15" s="35">
         <v>2015</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="45" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="40">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>2016</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="str">
+      <c r="G16" s="22">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>2016</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35">
+      <c r="A18" s="29">
         <v>2017</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="40">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="str">
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41">
+      <c r="A19" s="35">
         <v>2017</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="45" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="46">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8" t="str">
+      <c r="G19" s="40">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>2018</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="str">
+      <c r="G20" s="22">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>2018</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="str">
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35">
+      <c r="A22" s="29">
         <v>2019</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="39" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41">
+      <c r="A23" s="35">
         <v>2019</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="45" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="46">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="str">
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>2020</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8" t="str">
+      <c r="G24" s="22">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="29">
         <v>2020</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="34">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
         <v>2021</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="39" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="40">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8" t="str">
+      <c r="G26" s="42">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="str">
         <f t="shared" ref="H26:H27" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41">
+      <c r="A27" s="15">
         <v>2021</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="45" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="46">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8" t="str">
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>2022</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="18" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <v>0</v>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="7" t="str">
         <f t="shared" ref="H28:H32" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>2022</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="22">
         <v>0</v>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="35">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
         <v>2023</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="39" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="41">
         <v>0</v>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="29">
         <v>2023</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="18" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="46">
         <v>0</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="15">
         <v>2024</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="8" t="str">
+      <c r="C32" s="37"/>
+      <c r="D32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1921,12 +1977,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
+  <conditionalFormatting sqref="G3:G31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1938,12 +1994,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G31">
+  <conditionalFormatting sqref="G32">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G31">
+  <conditionalFormatting sqref="G32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1980,79 +2036,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4B2AB-711F-443A-B3E3-F175ACA6503B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EA981-3FFF-4DAB-91E3-73A976932C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1365,7 +1365,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1495,7 +1495,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7" t="str">
         <f t="shared" si="0"/>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91EA981-3FFF-4DAB-91E3-73A976932C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E058A1C4-5BE9-4010-8405-20A9E1A1A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -620,37 +620,61 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -661,7 +685,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,24 +799,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +822,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -811,7 +850,55 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -858,9 +945,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1129,13 +1216,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1150,17 +1237,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="C1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1171,8 +1258,8 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1212,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="str">
-        <f t="shared" ref="H3:H25" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H3:H33" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I3" s="7"/>
@@ -1680,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(G21&gt;1,G21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="I21" s="7"/>
@@ -1763,24 +1850,24 @@
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49">
         <v>2020</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="54">
         <v>1</v>
       </c>
       <c r="H25" s="7" t="str">
@@ -1789,28 +1876,28 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="29">
         <v>2021</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="17" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="44">
         <v>1</v>
       </c>
       <c r="H26" s="7" t="str">
-        <f t="shared" ref="H26:H27" si="1">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="7"/>
@@ -1836,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I27" s="7"/>
@@ -1859,10 +1946,10 @@
         <v>63</v>
       </c>
       <c r="G28" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f t="shared" ref="H28:H32" si="2">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I28" s="7"/>
@@ -1885,88 +1972,94 @@
         <v>63</v>
       </c>
       <c r="G29" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="49">
         <v>2023</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="41">
-        <v>0</v>
+      <c r="G30" s="54">
+        <v>1</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
         <v>2023</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="45" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="46">
-        <v>0</v>
+      <c r="G31" s="55">
+        <v>1</v>
       </c>
       <c r="H31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15">
+      <c r="A32" s="29">
         <v>2024</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="45" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="40">
-        <v>0</v>
+      <c r="G32" s="44">
+        <v>1</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1977,12 +2070,46 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G31">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G24 G27:G31">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G31">
+  <conditionalFormatting sqref="G3:G24 G27:G31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1995,7 +2122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E058A1C4-5BE9-4010-8405-20A9E1A1A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E6D83-59AE-4A2A-997A-24C60C9B63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>Year</t>
   </si>
@@ -292,9 +295,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -302,13 +302,46 @@
   </si>
   <si>
     <t>76.900</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>$Album_page</t>
+  </si>
+  <si>
+    <t>1st page</t>
+  </si>
+  <si>
+    <t>2nd page</t>
+  </si>
+  <si>
+    <t>3rd page</t>
+  </si>
+  <si>
+    <t>4th page</t>
+  </si>
+  <si>
+    <t>5th page</t>
+  </si>
+  <si>
+    <t>6th page</t>
+  </si>
+  <si>
+    <t>7th page</t>
+  </si>
+  <si>
+    <t>8th page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,8 +419,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +471,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -679,13 +768,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,15 +923,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +943,66 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,23 +1010,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -908,22 +1052,6 @@
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -945,9 +1073,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1216,58 +1344,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="8" customWidth="1"/>
-    <col min="3" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="13.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1275,7 +1405,9 @@
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="72" t="s">
+        <v>76</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1298,11 +1430,13 @@
       <c r="G3" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f t="shared" ref="H3:H33" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
@@ -1324,11 +1458,11 @@
       <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="7" t="str">
+        <f>IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -1350,11 +1484,11 @@
       <c r="G5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="7" t="str">
+        <f>IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
@@ -1376,11 +1510,11 @@
       <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="7" t="str">
+        <f>IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35">
@@ -1402,11 +1536,13 @@
       <c r="G7" s="40">
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
@@ -1428,11 +1564,11 @@
       <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="7" t="str">
+        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
@@ -1454,11 +1590,11 @@
       <c r="G9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="7" t="str">
+        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
@@ -1480,11 +1616,11 @@
       <c r="G10" s="34">
         <v>1</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="7" t="str">
+        <f>IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
@@ -1506,11 +1642,13 @@
       <c r="G11" s="40">
         <v>1</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="7"/>
+      <c r="H11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
@@ -1532,11 +1670,11 @@
       <c r="G12" s="22">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="7" t="str">
+        <f>IF(OR(AND(G12&gt;1,G12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
@@ -1558,11 +1696,11 @@
       <c r="G13" s="22">
         <v>0</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="7" t="str">
+        <f>IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
@@ -1584,11 +1722,11 @@
       <c r="G14" s="34">
         <v>1</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="7"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="7" t="str">
+        <f>IF(OR(AND(G14&gt;1,G14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
@@ -1610,11 +1748,13 @@
       <c r="G15" s="40">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>IF(OR(AND(G15&gt;1,G15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
@@ -1636,11 +1776,11 @@
       <c r="G16" s="22">
         <v>1</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="7" t="str">
+        <f>IF(OR(AND(G16&gt;1,G16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
@@ -1662,11 +1802,11 @@
       <c r="G17" s="22">
         <v>0</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="7" t="str">
+        <f>IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="29">
@@ -1688,11 +1828,11 @@
       <c r="G18" s="34">
         <v>1</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="7"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="7" t="str">
+        <f>IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
@@ -1714,11 +1854,13 @@
       <c r="G19" s="40">
         <v>1</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="7"/>
+      <c r="H19" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f>IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
@@ -1740,11 +1882,11 @@
       <c r="G20" s="22">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="7" t="str">
+        <f>IF(OR(AND(G20&gt;1,G20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
@@ -1766,11 +1908,11 @@
       <c r="G21" s="22">
         <v>1</v>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="H21" s="65"/>
+      <c r="I21" s="7" t="str">
         <f>IF(OR(AND(G21&gt;1,G21&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29">
@@ -1792,11 +1934,11 @@
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I22" s="7"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="7" t="str">
+        <f>IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
@@ -1818,11 +1960,13 @@
       <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="7"/>
+      <c r="H23" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f>IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
@@ -1844,37 +1988,37 @@
       <c r="G24" s="22">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I24" s="7"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="7" t="str">
+        <f>IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49">
+      <c r="A25" s="46">
         <v>2020</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="53" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="51">
         <v>1</v>
       </c>
-      <c r="H25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I25" s="7"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="7" t="str">
+        <f>IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="29">
@@ -1896,11 +2040,11 @@
       <c r="G26" s="44">
         <v>1</v>
       </c>
-      <c r="H26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="7"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="7" t="str">
+        <f>IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
@@ -1922,11 +2066,13 @@
       <c r="G27" s="24">
         <v>1</v>
       </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I27" s="7"/>
+      <c r="H27" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f>IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
@@ -1948,11 +2094,11 @@
       <c r="G28" s="22">
         <v>1</v>
       </c>
-      <c r="H28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="7"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="7" t="str">
+        <f>IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
@@ -1974,37 +2120,37 @@
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="7"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="7" t="str">
+        <f>IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49">
+      <c r="A30" s="46">
         <v>2023</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="53" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="51">
         <v>1</v>
       </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I30" s="7"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="7" t="str">
+        <f>IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
@@ -2023,21 +2169,21 @@
       <c r="F31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="52">
         <v>1</v>
       </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="7" t="str">
+        <f>IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="29">
         <v>2024</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31" t="s">
@@ -2047,31 +2193,46 @@
         <v>23</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="44">
         <v>1</v>
       </c>
-      <c r="H32" s="7" t="str">
-        <f t="shared" si="0"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="7" t="str">
+        <f>IF(OR(AND(G32&gt;1,G32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H33" s="70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="71"/>
+    </row>
+    <row r="35" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="71"/>
+    </row>
+    <row r="38" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G24 G27:G31">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2088,7 +2249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2105,7 +2266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E6D83-59AE-4A2A-997A-24C60C9B63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480D946-8FB1-4FDE-9783-A3B084BEDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="1470" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>80th Anniversary - Birth of Pope Benedict XVI</t>
   </si>
   <si>
-    <t>5th centenary of the Swiss Pontifical Guard</t>
-  </si>
-  <si>
     <t>20th World Youth Day held in Cologne in August 2005</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>8th page</t>
+  </si>
+  <si>
+    <t>500th centenary of the Swiss Pontifical Guard</t>
   </si>
 </sst>
 </file>
@@ -944,6 +944,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,54 +1002,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,6 +1011,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1043,15 +1052,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1073,9 +1073,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1350,7 +1350,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1365,15 +1365,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="45"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1381,23 +1381,23 @@
         <v>3</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -1405,8 +1405,8 @@
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="72" t="s">
-        <v>76</v>
+      <c r="H2" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1419,22 +1419,22 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>77</v>
+      <c r="H3" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3:I32" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1443,24 +1443,24 @@
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="22">
         <v>0</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="7" t="str">
-        <f>IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1469,24 +1469,24 @@
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="7" t="str">
-        <f>IF(OR(AND(G5&gt;1,G5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1499,20 +1499,20 @@
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="7" t="str">
-        <f>IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="40">
         <v>0</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>78</v>
+      <c r="H7" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f>IF(OR(AND(G7&gt;1,G7&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1549,24 +1549,24 @@
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="7" t="str">
-        <f>IF(OR(AND(G8&gt;1,G8&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1575,24 +1575,24 @@
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="7" t="str">
-        <f>IF(OR(AND(G9&gt;1,G9&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1601,24 +1601,24 @@
         <v>2011</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="34">
         <v>1</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="7" t="str">
-        <f>IF(OR(AND(G10&gt;1,G10&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1627,26 +1627,26 @@
         <v>2012</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="40">
         <v>1</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>79</v>
+      <c r="H11" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="str">
-        <f>IF(OR(AND(G11&gt;1,G11&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1655,24 +1655,24 @@
         <v>2013</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="22">
         <v>1</v>
       </c>
-      <c r="H12" s="61"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="7" t="str">
-        <f>IF(OR(AND(G12&gt;1,G12&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1681,24 +1681,24 @@
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="22">
         <v>0</v>
       </c>
-      <c r="H13" s="61"/>
+      <c r="H13" s="57"/>
       <c r="I13" s="7" t="str">
-        <f>IF(OR(AND(G13&gt;1,G13&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1707,24 +1707,24 @@
         <v>2014</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="34">
         <v>1</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="7" t="str">
-        <f>IF(OR(AND(G14&gt;1,G14&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1733,26 +1733,26 @@
         <v>2015</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="40">
         <v>0</v>
       </c>
-      <c r="H15" s="62" t="s">
-        <v>80</v>
+      <c r="H15" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="I15" s="7" t="str">
-        <f>IF(OR(AND(G15&gt;1,G15&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1761,24 +1761,24 @@
         <v>2016</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="22">
         <v>1</v>
       </c>
-      <c r="H16" s="63"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="7" t="str">
-        <f>IF(OR(AND(G16&gt;1,G16&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1787,24 +1787,24 @@
         <v>2016</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="22">
         <v>0</v>
       </c>
-      <c r="H17" s="63"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="7" t="str">
-        <f>IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1813,24 +1813,24 @@
         <v>2017</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="34">
         <v>1</v>
       </c>
-      <c r="H18" s="63"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="7" t="str">
-        <f>IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1839,26 +1839,26 @@
         <v>2017</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="40">
         <v>1</v>
       </c>
-      <c r="H19" s="64" t="s">
-        <v>81</v>
+      <c r="H19" s="60" t="s">
+        <v>80</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IF(OR(AND(G19&gt;1,G19&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1867,24 +1867,24 @@
         <v>2018</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="22">
         <v>1</v>
       </c>
-      <c r="H20" s="65"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="7" t="str">
-        <f>IF(OR(AND(G20&gt;1,G20&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1893,24 +1893,24 @@
         <v>2018</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="22">
         <v>1</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="7" t="str">
-        <f>IF(OR(AND(G21&gt;1,G21&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1919,24 +1919,24 @@
         <v>2019</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="34">
         <v>1</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="7" t="str">
-        <f>IF(OR(AND(G22&gt;1,G22&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1945,26 +1945,26 @@
         <v>2019</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="40">
         <v>1</v>
       </c>
-      <c r="H23" s="66" t="s">
-        <v>82</v>
+      <c r="H23" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(OR(AND(G23&gt;1,G23&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1973,24 +1973,24 @@
         <v>2020</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="22">
         <v>1</v>
       </c>
-      <c r="H24" s="67"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="7" t="str">
-        <f>IF(OR(AND(G24&gt;1,G24&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1999,24 +1999,24 @@
         <v>2020</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="51">
         <v>1</v>
       </c>
-      <c r="H25" s="67"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="7" t="str">
-        <f>IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2025,24 +2025,24 @@
         <v>2021</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="44">
         <v>1</v>
       </c>
-      <c r="H26" s="67"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="7" t="str">
-        <f>IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2051,26 +2051,26 @@
         <v>2021</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="24">
         <v>1</v>
       </c>
-      <c r="H27" s="68" t="s">
-        <v>83</v>
+      <c r="H27" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(OR(AND(G27&gt;1,G27&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2079,24 +2079,24 @@
         <v>2022</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="22">
         <v>1</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="65"/>
       <c r="I28" s="7" t="str">
-        <f>IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2105,24 +2105,24 @@
         <v>2022</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="69"/>
+      <c r="H29" s="65"/>
       <c r="I29" s="7" t="str">
-        <f>IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2131,24 +2131,24 @@
         <v>2023</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="48"/>
       <c r="D30" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="51">
         <v>1</v>
       </c>
-      <c r="H30" s="69"/>
+      <c r="H30" s="65"/>
       <c r="I30" s="7" t="str">
-        <f>IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2157,24 +2157,24 @@
         <v>2023</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="52">
         <v>1</v>
       </c>
-      <c r="H31" s="69"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="7" t="str">
-        <f>IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2183,46 +2183,46 @@
         <v>2024</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="44">
         <v>1</v>
       </c>
-      <c r="H32" s="69"/>
+      <c r="H32" s="65"/>
       <c r="I32" s="7" t="str">
-        <f>IF(OR(AND(G32&gt;1,G32&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="70" t="s">
-        <v>84</v>
+      <c r="H33" s="66" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H34" s="71"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H35" s="71"/>
+      <c r="H35" s="67"/>
     </row>
     <row r="36" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="71"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H37" s="71"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H38" s="71"/>
+      <c r="H38" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2232,7 +2232,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G24 G27:G31">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2249,7 +2249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2266,7 +2266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2283,7 +2283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2383,10 +2383,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2394,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480D946-8FB1-4FDE-9783-A3B084BEDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D9581-0A23-45AD-9761-AC11D0104BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="1470" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2150" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1428,7 +1428,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>76</v>
@@ -1508,7 +1508,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="53"/>
       <c r="I6" s="7" t="str">
@@ -1534,7 +1534,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>77</v>

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D9581-0A23-45AD-9761-AC11D0104BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C6B04D-597F-4F6A-B461-16C27E596D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2150" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1694,7 +1694,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="57"/>
       <c r="I13" s="7" t="str">
@@ -1746,7 +1746,7 @@
         <v>52</v>
       </c>
       <c r="G15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="58" t="s">
         <v>79</v>
@@ -1800,7 +1800,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="7" t="str">

--- a/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Vatican_city/#EURO#Vatican_city#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Vatican_city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C6B04D-597F-4F6A-B461-16C27E596D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92E8E8-6C20-469A-8A7D-DC804DDEDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1350,7 +1353,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1456,7 +1459,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="7" t="str">
